--- a/StructureDefinition-ext-R5-Timing.repeat.xlsx
+++ b/StructureDefinition-ext-R5-Timing.repeat.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -590,15 +590,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A unit of time (units from UCUM).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-units-of-time-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:frequency</t>
   </si>
   <si>
@@ -786,9 +777,6 @@
     <t>Extension.extension:dayOfWeek.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:timeOfDay</t>
   </si>
   <si>
@@ -861,10 +849,13 @@
     <t>Extension.extension:when.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>Real-world event relating to the schedule.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-event-timing-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-event-timing-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:offset</t>
@@ -1260,7 +1251,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="34.5546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.58984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4803,13 +4794,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -4847,13 +4838,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4878,14 +4869,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4954,7 +4945,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5057,7 +5048,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5162,7 +5153,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5205,7 +5196,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5267,7 +5258,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5296,10 +5287,10 @@
         <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5370,13 +5361,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5401,14 +5392,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5477,7 +5468,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5580,7 +5571,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5685,7 +5676,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5728,7 +5719,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5790,7 +5781,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -5819,10 +5810,10 @@
         <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5893,13 +5884,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5924,14 +5915,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6000,7 +5991,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -6103,7 +6094,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -6208,7 +6199,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6251,7 +6242,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6313,7 +6304,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6342,10 +6333,10 @@
         <v>159</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6416,13 +6407,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6447,14 +6438,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6523,7 +6514,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -6626,7 +6617,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -6731,7 +6722,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6774,7 +6765,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6836,7 +6827,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6865,10 +6856,10 @@
         <v>159</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6939,13 +6930,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6973,11 +6964,11 @@
         <v>172</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7046,7 +7037,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7149,7 +7140,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7254,7 +7245,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7297,7 +7288,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7359,7 +7350,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7391,7 +7382,7 @@
         <v>172</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7418,13 +7409,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -7462,13 +7453,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7493,16 +7484,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7571,7 +7562,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7674,7 +7665,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7779,7 +7770,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7822,7 +7813,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7884,7 +7875,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7913,13 +7904,13 @@
         <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7945,11 +7936,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -7987,13 +7980,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8018,16 +8011,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8096,7 +8089,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8199,7 +8192,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8304,7 +8297,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8347,7 +8340,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8409,7 +8402,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8435,16 +8428,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8514,13 +8507,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8545,16 +8538,16 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8616,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -8726,7 +8719,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -8831,7 +8824,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -8874,7 +8867,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8936,7 +8929,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -8965,13 +8958,13 @@
         <v>180</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -8997,13 +8990,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -9041,13 +9034,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9072,14 +9065,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9148,7 +9141,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9251,7 +9244,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9356,7 +9349,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -9399,7 +9392,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9461,7 +9454,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -9487,13 +9480,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9695,13 +9688,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
